--- a/instance/全国区划代码/123.xlsx
+++ b/instance/全国区划代码/123.xlsx
@@ -54,6 +54,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -346,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,692 +2581,6 @@
       <c r="H71" t="inlineStr">
         <is>
           <t>徐庄高新技术产业开发区</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>320102</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>玄武区</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>320102400</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>徐庄高新技术产业开发区</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>320102400498</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>徐庄高新技术产业开发区虚拟社区</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>320104001001</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>中牌楼社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>320104001002</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>康居里社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>320104001003</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>乔虹苑社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>320104001004</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>集虹苑社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>320104001006</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>武定新村社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>320104001007</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>旭光里社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>320104001008</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>岗虹苑社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>320104001009</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>扇骨里社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>320104001010</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>枫丹白露社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>320104001</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>秦虹街道</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>320104001011</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>怡謦花园社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>320104002001</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>莲子营社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>320104002002</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>东水关社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>320104002005</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>乌衣巷社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>320104002009</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>金陵路社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>320104002012</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>小西湖社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>320104002015</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>饮虹园社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>320104002016</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>江宁路社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>320104002</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>夫子庙街道</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>320104002019</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>门东社区居委会</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>320104</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>秦淮区</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>320104003</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>红花街道</t>
         </is>
       </c>
     </row>
